--- a/biology/Microbiologie/Budviciaceae/Budviciaceae.xlsx
+++ b/biology/Microbiologie/Budviciaceae/Budviciaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Budviciaceae sont une famille de bacilles Gram négatifs de l'ordre  des Enterobacterales. Leur nom provient de Budvicia qui est le genre type de la famille.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est créée en 2016 lors de la réorganisation de l'ordre des Enterobacterales par M. Adeolu et al. sur la base de travaux de phylogénétique moléculaire[1]. Elle se compose de genres bactériens auparavant rattachés aux Enterobacteriaceae sur la base de critères phénotypiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est créée en 2016 lors de la réorganisation de l'ordre des Enterobacterales par M. Adeolu et al. sur la base de travaux de phylogénétique moléculaire. Elle se compose de genres bactériens auparavant rattachés aux Enterobacteriaceae sur la base de critères phénotypiques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (26 octobre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (26 octobre 2022) :
 Budvicia Bouvet et al. 1985 – genre type
 Insectihabitans Lee et al. 2021
 Jinshanibacter Ge et al. 2021
